--- a/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E07A15-EE5A-411A-B16B-07368F8F1247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D77238-E9E8-47AF-9C10-2C820E0C04AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -93,12 +93,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{6}$')</t>
-  </si>
-  <si>
-    <t>Le lot doit être un nombre à six chiffre</t>
-  </si>
-  <si>
     <t>select_one results_list</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>6. Combien d'enfant allez vous enregistrer?</t>
   </si>
   <si>
-    <t>Résultat FTS</t>
-  </si>
-  <si>
     <t>7. Avez-vous besoin de scanner le code barre sur le test diagnostique</t>
   </si>
   <si>
@@ -291,21 +282,12 @@
     <t>8.c. Veuiller enregistrer le code d'identification unique du participant qui apparait sur une liste séparée et sur chaque test de diagnostic administré</t>
   </si>
   <si>
-    <t>9. Veuiller entrer le numéro de lot FTS 1</t>
-  </si>
-  <si>
     <t>11. Donner la raison du test Invalide</t>
   </si>
   <si>
     <t>12. Donner la raison du test Invalide</t>
   </si>
   <si>
-    <t>14. Veuiller entrer le numéro de lot FTS 2</t>
-  </si>
-  <si>
-    <t>15. FTS - Test 2</t>
-  </si>
-  <si>
     <t>16. Donnez la raison du test Invalide</t>
   </si>
   <si>
@@ -318,9 +300,6 @@
     <t>sn_lf_itas_20305_3_dbs</t>
   </si>
   <si>
-    <t>(2024 Mai) 3. ITAS - Formulaire Résultat FTS</t>
-  </si>
-  <si>
     <t>requireo_message</t>
   </si>
   <si>
@@ -393,12 +372,6 @@
     <t>not(selected(${C3}, ${o_code_id}))</t>
   </si>
   <si>
-    <t>if(${o_IDType} = 'Scanner', concat(${o_BarcodeID}),concat( ${o_manual_code_id}))</t>
-  </si>
-  <si>
-    <t>o_lotnumber1</t>
-  </si>
-  <si>
     <t>o_result1</t>
   </si>
   <si>
@@ -426,9 +399,6 @@
     <t>13 .Le premier résultat du test de ce participant est ${o_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
   </si>
   <si>
-    <t>o_lotnumber2</t>
-  </si>
-  <si>
     <t>o_result2</t>
   </si>
   <si>
@@ -460,9 +430,6 @@
   </si>
   <si>
     <t>o_end</t>
-  </si>
-  <si>
-    <t>10. Résultat Test 1</t>
   </si>
   <si>
     <t>${o_commune} = 'Saraya'</t>
@@ -481,6 +448,27 @@
   </si>
   <si>
     <t>repeat_count</t>
+  </si>
+  <si>
+    <t>if(${o_IDType} = 'Scanner', concat(${o_BarcodeID}),concat(${o_recorderID}, '_', ${o_cluster_id}, '_',  ${o_manual_code_id}))</t>
+  </si>
+  <si>
+    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO</t>
+  </si>
+  <si>
+    <t>Résultat ONCHO</t>
+  </si>
+  <si>
+    <t>10. Résultat Test ONCHO 1</t>
+  </si>
+  <si>
+    <t>15. Résultat Test ONCHO 2</t>
+  </si>
+  <si>
+    <t>${o_commune} != 'Saraya'</t>
+  </si>
+  <si>
+    <t>${C_commune} != 'Saraya'</t>
   </si>
 </sst>
 </file>
@@ -1072,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1131,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>10</v>
@@ -1140,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="63">
@@ -1151,10 +1139,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>13</v>
@@ -1180,10 +1168,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="13"/>
@@ -1203,10 +1191,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="13"/>
@@ -1220,7 +1208,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1">
@@ -1228,17 +1216,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
       <c r="F5" s="17"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
@@ -1247,7 +1235,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="31.5">
@@ -1255,10 +1243,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>18</v>
@@ -1271,7 +1259,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
@@ -1280,7 +1268,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:15" customFormat="1">
@@ -1288,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>16</v>
@@ -1302,10 +1290,10 @@
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1">
       <c r="A8" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -1314,7 +1302,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="14"/>
       <c r="I8" s="32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -1322,35 +1310,35 @@
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1">
       <c r="A9" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="O9" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1">
       <c r="A10" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -1359,7 +1347,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -1367,10 +1355,10 @@
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1379,7 +1367,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="30"/>
       <c r="I11" s="37" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -1390,10 +1378,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
@@ -1413,17 +1401,17 @@
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="16"/>
       <c r="H13" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13" t="s">
@@ -1438,17 +1426,17 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="14"/>
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
       <c r="H14" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13" t="s">
@@ -1463,21 +1451,21 @@
         <v>17</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="14"/>
       <c r="F15" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13" t="s">
@@ -1492,22 +1480,22 @@
         <v>17</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="26" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>16</v>
@@ -1521,22 +1509,20 @@
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1">
       <c r="A17" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="13" t="s">
@@ -1548,21 +1534,21 @@
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1">
       <c r="A18" s="13" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>26</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="I18" s="14"/>
       <c r="J18" s="13" t="s">
         <v>16</v>
@@ -1573,20 +1559,20 @@
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1">
       <c r="A19" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="18"/>
       <c r="H19" s="14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13" t="s">
@@ -1598,22 +1584,20 @@
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1">
       <c r="A20" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>91</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="18"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="J20" s="13" t="s">
         <v>16</v>
       </c>
@@ -1621,99 +1605,97 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" s="11" customFormat="1">
+    <row r="21" spans="1:13" s="11" customFormat="1" ht="63">
       <c r="A21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="H21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" s="11" customFormat="1" ht="63">
+    <row r="22" spans="1:13">
       <c r="A22" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" s="11" customFormat="1">
+        <v>118</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="13" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>26</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D24" s="19"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="19"/>
       <c r="H24" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="13" t="s">
@@ -1725,144 +1707,129 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="13" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>94</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="19"/>
       <c r="H25" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13" t="s">
-        <v>16</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="162.75" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>95</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="162.75" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>141</v>
-      </c>
+    <row r="27" spans="1:13" s="23" customFormat="1">
+      <c r="A27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="21" t="s">
-        <v>148</v>
-      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" s="23" customFormat="1">
-      <c r="A29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1">
+      <c r="A30" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>96</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -1874,59 +1841,24 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1">
-      <c r="A32" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,7 +1884,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1961,167 +1893,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2070,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2149,24 +2081,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D77238-E9E8-47AF-9C10-2C820E0C04AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA76644A-A18D-4068-84B3-C6871E1A4034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="199">
   <si>
     <t>type</t>
   </si>
@@ -120,9 +121,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>district_list</t>
-  </si>
-  <si>
     <t>commune_list</t>
   </si>
   <si>
@@ -297,9 +295,6 @@
     <t>18. Notes supplémentaires</t>
   </si>
   <si>
-    <t>sn_lf_itas_20305_3_dbs</t>
-  </si>
-  <si>
     <t>requireo_message</t>
   </si>
   <si>
@@ -315,9 +310,6 @@
     <t>o_commune</t>
   </si>
   <si>
-    <t>district_list = ${o_eu_name}</t>
-  </si>
-  <si>
     <t>o_cluster_name</t>
   </si>
   <si>
@@ -336,9 +328,6 @@
     <t>join(' ', ${o_code_id})</t>
   </si>
   <si>
-    <t>sn_lf_o_2405</t>
-  </si>
-  <si>
     <t>${o_nb_part}</t>
   </si>
   <si>
@@ -430,9 +419,6 @@
   </si>
   <si>
     <t>o_end</t>
-  </si>
-  <si>
-    <t>${o_commune} = 'Saraya'</t>
   </si>
   <si>
     <t>if(${o_result1}="Invalide" and ${o_result2}="Positif", "Positif",
@@ -453,9 +439,6 @@
     <t>if(${o_IDType} = 'Scanner', concat(${o_BarcodeID}),concat(${o_recorderID}, '_', ${o_cluster_id}, '_',  ${o_manual_code_id}))</t>
   </si>
   <si>
-    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO</t>
-  </si>
-  <si>
     <t>Résultat ONCHO</t>
   </si>
   <si>
@@ -465,17 +448,194 @@
     <t>15. Résultat Test ONCHO 2</t>
   </si>
   <si>
-    <t>${o_commune} != 'Saraya'</t>
-  </si>
-  <si>
-    <t>${C_commune} != 'Saraya'</t>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>COMMUNES POLARISEES</t>
+  </si>
+  <si>
+    <t>ETABLISSEMENTS</t>
+  </si>
+  <si>
+    <t>SARAYA</t>
+  </si>
+  <si>
+    <t>EE MANDANKHOLING/DANTILA</t>
+  </si>
+  <si>
+    <t>BEMBOU</t>
+  </si>
+  <si>
+    <t>EE BALORI</t>
+  </si>
+  <si>
+    <t>EE BOBOTI</t>
+  </si>
+  <si>
+    <t>DIALADAKHOTO</t>
+  </si>
+  <si>
+    <t>EE FODE BINEA</t>
+  </si>
+  <si>
+    <t>EE KHARAKHENA</t>
+  </si>
+  <si>
+    <t>EE MAMBA DIAKHABY (Ex DIAKHABA)</t>
+  </si>
+  <si>
+    <t>EE MASSA MASSA</t>
+  </si>
+  <si>
+    <t>EE SAMEKHOTO</t>
+  </si>
+  <si>
+    <t>EE SATADOUGOU</t>
+  </si>
+  <si>
+    <t>EE MADINACOURA BOUGOUDALA</t>
+  </si>
+  <si>
+    <t>MADINA BAFFE</t>
+  </si>
+  <si>
+    <t>EE BABOUYA</t>
+  </si>
+  <si>
+    <t>EE KHOULEA</t>
+  </si>
+  <si>
+    <t>EE NOUMOUFOUKHA</t>
+  </si>
+  <si>
+    <t>EE SAMECOUTA DANTILA</t>
+  </si>
+  <si>
+    <t>KHOSSANTO</t>
+  </si>
+  <si>
+    <t>EE CIRE GUIMBA EX KHOSSANTO</t>
+  </si>
+  <si>
+    <t>EE DIEGOUN</t>
+  </si>
+  <si>
+    <t>EE LEFAKHO</t>
+  </si>
+  <si>
+    <t>EE NIAMAYA</t>
+  </si>
+  <si>
+    <t>MISSIRAH SIRIMANA</t>
+  </si>
+  <si>
+    <t>EE BAGUE</t>
+  </si>
+  <si>
+    <t>EE DALOTO</t>
+  </si>
+  <si>
+    <t>EE FARANDING</t>
+  </si>
+  <si>
+    <t>EE MADINA SIRIMANA</t>
+  </si>
+  <si>
+    <t>EE MOUSSALA KENIEKHO</t>
+  </si>
+  <si>
+    <t>EE SAMBRAMBOUGOU</t>
+  </si>
+  <si>
+    <t>WANSANGARAN</t>
+  </si>
+  <si>
+    <t>SABODALA</t>
+  </si>
+  <si>
+    <t>EE BAMBARAYANDING</t>
+  </si>
+  <si>
+    <t>EE DINDIFA</t>
+  </si>
+  <si>
+    <t>EE MAKHANA</t>
+  </si>
+  <si>
+    <t>EE SABODALA</t>
+  </si>
+  <si>
+    <t>EE OUSMANE KEITA EX GUEMEDJI</t>
+  </si>
+  <si>
+    <t>EE MAMAKHONO</t>
+  </si>
+  <si>
+    <t>EE MOUSSALA MAHINAMINE</t>
+  </si>
+  <si>
+    <t>EE KENIEKENIEBANDING</t>
+  </si>
+  <si>
+    <t>EE BRANSAN</t>
+  </si>
+  <si>
+    <t>EE BAMBADJI</t>
+  </si>
+  <si>
+    <t>EE GAMBA GAMBA</t>
+  </si>
+  <si>
+    <t>EE BOKHODY</t>
+  </si>
+  <si>
+    <t>EE DOUKHIBA</t>
+  </si>
+  <si>
+    <t>EE MISSIRAH SIRIMANA</t>
+  </si>
+  <si>
+    <t>Code ID</t>
+  </si>
+  <si>
+    <t>eu_list</t>
+  </si>
+  <si>
+    <t>site_code</t>
+  </si>
+  <si>
+    <t>select_one eu_list</t>
+  </si>
+  <si>
+    <t>select_one commune_list</t>
+  </si>
+  <si>
+    <t>select_one site_list</t>
+  </si>
+  <si>
+    <t>select_one site_code</t>
+  </si>
+  <si>
+    <t>eu_list = ${o_eu_name}</t>
+  </si>
+  <si>
+    <t>sn_lf_o_2405_v2</t>
+  </si>
+  <si>
+    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO V2</t>
+  </si>
+  <si>
+    <t>sn_lf_itas_20305_3_dbs_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,8 +706,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +783,26 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -664,11 +875,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -779,11 +1058,140 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{012BE826-F3DF-4311-BF8B-2A994C2D8657}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
@@ -1063,10 +1471,10 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1119,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>10</v>
@@ -1128,10 +1536,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="63">
@@ -1139,10 +1547,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>13</v>
@@ -1165,13 +1573,13 @@
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="13"/>
@@ -1188,13 +1596,13 @@
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="13"/>
@@ -1208,26 +1616,24 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
       <c r="F5" s="17"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="H5" s="14"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
         <v>16</v>
@@ -1235,18 +1641,18 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="31.5">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>18</v>
@@ -1258,9 +1664,7 @@
       <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="H6" s="14"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
         <v>16</v>
@@ -1268,7 +1672,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:15" customFormat="1">
@@ -1276,14 +1680,12 @@
         <v>12</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>144</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H7" s="14"/>
       <c r="J7" s="29" t="s">
         <v>16</v>
       </c>
@@ -1293,7 +1695,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -1302,7 +1704,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="14"/>
       <c r="I8" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -1310,27 +1712,25 @@
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1">
       <c r="A9" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="H9" s="14"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="O9" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1">
@@ -1338,7 +1738,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -1347,7 +1747,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -1358,7 +1758,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1367,7 +1767,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="30"/>
       <c r="I11" s="37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -1378,10 +1778,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
@@ -1401,17 +1801,17 @@
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="16"/>
       <c r="H13" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13" t="s">
@@ -1426,17 +1826,17 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="14"/>
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
       <c r="H14" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13" t="s">
@@ -1451,21 +1851,21 @@
         <v>17</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="14"/>
       <c r="F15" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13" t="s">
@@ -1480,22 +1880,22 @@
         <v>17</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>16</v>
@@ -1512,10 +1912,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>24</v>
@@ -1534,20 +1934,20 @@
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1">
       <c r="A18" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="18"/>
       <c r="H18" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="13" t="s">
@@ -1562,17 +1962,17 @@
         <v>25</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="18"/>
       <c r="H19" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13" t="s">
@@ -1587,7 +1987,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="18"/>
@@ -1596,7 +1996,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>16</v>
@@ -1610,17 +2010,17 @@
         <v>27</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="18"/>
       <c r="H21" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -1633,10 +2033,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>24</v>
@@ -1645,7 +2045,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="19"/>
       <c r="H22" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="13" t="s">
@@ -1657,20 +2057,20 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="19"/>
       <c r="H23" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="13" t="s">
@@ -1685,17 +2085,17 @@
         <v>25</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="19"/>
       <c r="H24" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="13" t="s">
@@ -1710,7 +2110,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -1718,10 +2118,10 @@
       <c r="F25" s="12"/>
       <c r="G25" s="19"/>
       <c r="H25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1733,7 +2133,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -1742,7 +2142,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="13"/>
       <c r="I26" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -1754,10 +2154,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="21"/>
@@ -1793,7 +2193,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="12"/>
@@ -1808,7 +2208,7 @@
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1">
       <c r="A30" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="35"/>
@@ -1827,7 +2227,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -1846,7 +2246,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -1868,18 +2268,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="3" max="3" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1893,167 +2294,1382 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>58</v>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67">
+        <v>341</v>
+      </c>
+      <c r="C67">
+        <v>341</v>
+      </c>
+      <c r="F67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68">
+        <v>342</v>
+      </c>
+      <c r="C68">
+        <v>342</v>
+      </c>
+      <c r="F68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69">
+        <v>343</v>
+      </c>
+      <c r="C69">
+        <v>343</v>
+      </c>
+      <c r="F69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70">
+        <v>344</v>
+      </c>
+      <c r="C70">
+        <v>344</v>
+      </c>
+      <c r="F70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71">
+        <v>345</v>
+      </c>
+      <c r="C71">
+        <v>345</v>
+      </c>
+      <c r="F71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72">
+        <v>346</v>
+      </c>
+      <c r="C72">
+        <v>346</v>
+      </c>
+      <c r="F72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73">
+        <v>347</v>
+      </c>
+      <c r="C73">
+        <v>347</v>
+      </c>
+      <c r="F73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74">
+        <v>348</v>
+      </c>
+      <c r="C74">
+        <v>348</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75">
+        <v>349</v>
+      </c>
+      <c r="C75">
+        <v>349</v>
+      </c>
+      <c r="F75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76">
+        <v>350</v>
+      </c>
+      <c r="C76">
+        <v>350</v>
+      </c>
+      <c r="F76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77">
+        <v>351</v>
+      </c>
+      <c r="C77">
+        <v>351</v>
+      </c>
+      <c r="F77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78">
+        <v>352</v>
+      </c>
+      <c r="C78">
+        <v>352</v>
+      </c>
+      <c r="F78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79">
+        <v>353</v>
+      </c>
+      <c r="C79">
+        <v>353</v>
+      </c>
+      <c r="F79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80">
+        <v>354</v>
+      </c>
+      <c r="C80">
+        <v>354</v>
+      </c>
+      <c r="F80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81">
+        <v>355</v>
+      </c>
+      <c r="C81">
+        <v>355</v>
+      </c>
+      <c r="F81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82">
+        <v>356</v>
+      </c>
+      <c r="C82">
+        <v>356</v>
+      </c>
+      <c r="F82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83">
+        <v>357</v>
+      </c>
+      <c r="C83">
+        <v>357</v>
+      </c>
+      <c r="F83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84">
+        <v>358</v>
+      </c>
+      <c r="C84">
+        <v>358</v>
+      </c>
+      <c r="F84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85">
+        <v>359</v>
+      </c>
+      <c r="C85">
+        <v>359</v>
+      </c>
+      <c r="F85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86">
+        <v>360</v>
+      </c>
+      <c r="C86">
+        <v>360</v>
+      </c>
+      <c r="F86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87">
+        <v>361</v>
+      </c>
+      <c r="C87">
+        <v>361</v>
+      </c>
+      <c r="F87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88">
+        <v>362</v>
+      </c>
+      <c r="C88">
+        <v>362</v>
+      </c>
+      <c r="F88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89">
+        <v>363</v>
+      </c>
+      <c r="C89">
+        <v>363</v>
+      </c>
+      <c r="F89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90">
+        <v>364</v>
+      </c>
+      <c r="C90">
+        <v>364</v>
+      </c>
+      <c r="F90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91">
+        <v>365</v>
+      </c>
+      <c r="C91">
+        <v>365</v>
+      </c>
+      <c r="F91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92">
+        <v>366</v>
+      </c>
+      <c r="C92">
+        <v>366</v>
+      </c>
+      <c r="F92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93">
+        <v>367</v>
+      </c>
+      <c r="C93">
+        <v>367</v>
+      </c>
+      <c r="F93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94">
+        <v>368</v>
+      </c>
+      <c r="C94">
+        <v>368</v>
+      </c>
+      <c r="F94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95">
+        <v>369</v>
+      </c>
+      <c r="C95">
+        <v>369</v>
+      </c>
+      <c r="F95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96">
+        <v>370</v>
+      </c>
+      <c r="C96">
+        <v>370</v>
+      </c>
+      <c r="F96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97">
+        <v>371</v>
+      </c>
+      <c r="C97">
+        <v>371</v>
+      </c>
+      <c r="F97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98">
+        <v>372</v>
+      </c>
+      <c r="C98">
+        <v>372</v>
+      </c>
+      <c r="F98" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99">
+        <v>373</v>
+      </c>
+      <c r="C99">
+        <v>373</v>
+      </c>
+      <c r="F99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100">
+        <v>374</v>
+      </c>
+      <c r="C100">
+        <v>374</v>
+      </c>
+      <c r="F100" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101">
+        <v>375</v>
+      </c>
+      <c r="C101">
+        <v>375</v>
+      </c>
+      <c r="F101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102">
+        <v>376</v>
+      </c>
+      <c r="C102">
+        <v>376</v>
+      </c>
+      <c r="F102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103">
+        <v>377</v>
+      </c>
+      <c r="C103">
+        <v>377</v>
+      </c>
+      <c r="F103" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104">
+        <v>378</v>
+      </c>
+      <c r="C104">
+        <v>378</v>
+      </c>
+      <c r="F104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105">
+        <v>379</v>
+      </c>
+      <c r="C105">
+        <v>379</v>
+      </c>
+      <c r="F105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106">
+        <v>380</v>
+      </c>
+      <c r="C106">
+        <v>380</v>
+      </c>
+      <c r="F106" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +3686,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2081,28 +3697,1068 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF0756A-16D9-4D73-88B3-3858345D4208}">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.75">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="42">
+        <v>2</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2">
+        <v>341</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="42">
+        <v>5</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3">
+        <v>342</v>
+      </c>
+      <c r="K3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="42">
+        <v>9</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4">
+        <v>343</v>
+      </c>
+      <c r="K4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="42">
+        <v>12</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>344</v>
+      </c>
+      <c r="K5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="42">
+        <v>15</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6">
+        <v>345</v>
+      </c>
+      <c r="K6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="42">
+        <v>18</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>346</v>
+      </c>
+      <c r="K7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="46">
+        <v>23</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>347</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="42">
+        <v>25</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9">
+        <v>348</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="42">
+        <v>28</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10">
+        <v>349</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="42">
+        <v>32</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>350</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="42">
+        <v>35</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12">
+        <v>351</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="42">
+        <v>38</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13">
+        <v>352</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18.75">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="42">
+        <v>41</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14">
+        <v>353</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="42">
+        <v>45</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15">
+        <v>354</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18.75">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="42">
+        <v>48</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16">
+        <v>355</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="46">
+        <v>52</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17">
+        <v>356</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18.75">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="42">
+        <v>54</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18">
+        <v>357</v>
+      </c>
+      <c r="N18" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18.75">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="42">
+        <v>58</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19">
+        <v>358</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18.75">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="42">
+        <v>61</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20">
+        <v>359</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18.75">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="42">
+        <v>64</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21">
+        <v>360</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="42">
+        <v>67</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22">
+        <v>361</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.75">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="42">
+        <v>71</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23">
+        <v>362</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" s="44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18.75">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="42">
+        <v>74</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24">
+        <v>363</v>
+      </c>
+      <c r="N24" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="42">
+        <v>77</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25">
+        <v>364</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="O25" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18.75">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="42">
+        <v>81</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26">
+        <v>365</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="O26" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18.75">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="42">
+        <v>84</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27">
+        <v>366</v>
+      </c>
+      <c r="N27" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="O27" s="44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18.75">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="42">
+        <v>87</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28">
+        <v>367</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="O28" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18.75">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="42">
+        <v>90</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29">
+        <v>368</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="O29" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18.75">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="42">
+        <v>92</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30">
+        <v>369</v>
+      </c>
+      <c r="N30" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="O30" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="42">
+        <v>79</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31">
+        <v>370</v>
+      </c>
+      <c r="N31" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" s="44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="48">
+        <v>46</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32">
+        <v>371</v>
+      </c>
+      <c r="N32" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18.75">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="48">
+        <v>91</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33">
+        <v>372</v>
+      </c>
+      <c r="N33" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="O33" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18.75">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="48">
+        <v>26</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34">
+        <v>373</v>
+      </c>
+      <c r="N34" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="O34" s="44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="18.75">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="48">
+        <v>55</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35">
+        <v>374</v>
+      </c>
+      <c r="N35" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="O35" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="18.75">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="48">
+        <v>85</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36">
+        <v>375</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="O36" s="44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18.75">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="48">
+        <v>6</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37">
+        <v>376</v>
+      </c>
+      <c r="N37" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="O37" s="44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18.75">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="48">
+        <v>16</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38">
+        <v>377</v>
+      </c>
+      <c r="N38" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="O38" s="44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18.75">
+      <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="48">
+        <v>65</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39">
+        <v>378</v>
+      </c>
+      <c r="N39" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" s="44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18.75">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="48">
+        <v>36</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40">
+        <v>379</v>
+      </c>
+      <c r="N40" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="O40" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18.75">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="48">
+        <v>75</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41">
+        <v>380</v>
+      </c>
+      <c r="N41" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="O41" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:O41">
+    <sortCondition ref="N2:N41"/>
+    <sortCondition ref="O2:O41"/>
+  </sortState>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D41">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B41">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O41">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA76644A-A18D-4068-84B3-C6871E1A4034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A024A6CD-FA1B-4EAC-95E6-628F81E4E783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="216">
   <si>
     <t>type</t>
   </si>
@@ -97,9 +97,6 @@
     <t>select_one results_list</t>
   </si>
   <si>
-    <t>Invalide comprend des erreurs de test et un sang insuffisant</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -280,27 +277,12 @@
     <t>8.c. Veuiller enregistrer le code d'identification unique du participant qui apparait sur une liste séparée et sur chaque test de diagnostic administré</t>
   </si>
   <si>
-    <t>11. Donner la raison du test Invalide</t>
-  </si>
-  <si>
     <t>12. Donner la raison du test Invalide</t>
   </si>
   <si>
-    <t>16. Donnez la raison du test Invalide</t>
-  </si>
-  <si>
-    <t>17. Donnez la raison du test Invalide</t>
-  </si>
-  <si>
-    <t>18. Notes supplémentaires</t>
-  </si>
-  <si>
     <t>requireo_message</t>
   </si>
   <si>
-    <t>reao_only</t>
-  </si>
-  <si>
     <t>o_recorderID</t>
   </si>
   <si>
@@ -385,9 +367,6 @@
     <t>o_neeo_secono_test</t>
   </si>
   <si>
-    <t>13 .Le premier résultat du test de ce participant est ${o_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
-  </si>
-  <si>
     <t>o_result2</t>
   </si>
   <si>
@@ -403,9 +382,6 @@
     <t>selected(${o_why_Invalid2},'Other')</t>
   </si>
   <si>
-    <t>o_display_result2</t>
-  </si>
-  <si>
     <t>o_final_result</t>
   </si>
   <si>
@@ -419,216 +395,295 @@
   </si>
   <si>
     <t>o_end</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>Résultat ONCHO</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>COMMUNES POLARISEES</t>
+  </si>
+  <si>
+    <t>ETABLISSEMENTS</t>
+  </si>
+  <si>
+    <t>SARAYA</t>
+  </si>
+  <si>
+    <t>EE MANDANKHOLING/DANTILA</t>
+  </si>
+  <si>
+    <t>BEMBOU</t>
+  </si>
+  <si>
+    <t>EE BALORI</t>
+  </si>
+  <si>
+    <t>EE BOBOTI</t>
+  </si>
+  <si>
+    <t>DIALADAKHOTO</t>
+  </si>
+  <si>
+    <t>EE FODE BINEA</t>
+  </si>
+  <si>
+    <t>EE KHARAKHENA</t>
+  </si>
+  <si>
+    <t>EE MAMBA DIAKHABY (Ex DIAKHABA)</t>
+  </si>
+  <si>
+    <t>EE MASSA MASSA</t>
+  </si>
+  <si>
+    <t>EE SAMEKHOTO</t>
+  </si>
+  <si>
+    <t>EE SATADOUGOU</t>
+  </si>
+  <si>
+    <t>EE MADINACOURA BOUGOUDALA</t>
+  </si>
+  <si>
+    <t>MADINA BAFFE</t>
+  </si>
+  <si>
+    <t>EE BABOUYA</t>
+  </si>
+  <si>
+    <t>EE KHOULEA</t>
+  </si>
+  <si>
+    <t>EE NOUMOUFOUKHA</t>
+  </si>
+  <si>
+    <t>EE SAMECOUTA DANTILA</t>
+  </si>
+  <si>
+    <t>KHOSSANTO</t>
+  </si>
+  <si>
+    <t>EE CIRE GUIMBA EX KHOSSANTO</t>
+  </si>
+  <si>
+    <t>EE DIEGOUN</t>
+  </si>
+  <si>
+    <t>EE LEFAKHO</t>
+  </si>
+  <si>
+    <t>EE NIAMAYA</t>
+  </si>
+  <si>
+    <t>MISSIRAH SIRIMANA</t>
+  </si>
+  <si>
+    <t>EE BAGUE</t>
+  </si>
+  <si>
+    <t>EE DALOTO</t>
+  </si>
+  <si>
+    <t>EE FARANDING</t>
+  </si>
+  <si>
+    <t>EE MADINA SIRIMANA</t>
+  </si>
+  <si>
+    <t>EE MOUSSALA KENIEKHO</t>
+  </si>
+  <si>
+    <t>EE SAMBRAMBOUGOU</t>
+  </si>
+  <si>
+    <t>WANSANGARAN</t>
+  </si>
+  <si>
+    <t>SABODALA</t>
+  </si>
+  <si>
+    <t>EE BAMBARAYANDING</t>
+  </si>
+  <si>
+    <t>EE DINDIFA</t>
+  </si>
+  <si>
+    <t>EE MAKHANA</t>
+  </si>
+  <si>
+    <t>EE SABODALA</t>
+  </si>
+  <si>
+    <t>EE OUSMANE KEITA EX GUEMEDJI</t>
+  </si>
+  <si>
+    <t>EE MAMAKHONO</t>
+  </si>
+  <si>
+    <t>EE MOUSSALA MAHINAMINE</t>
+  </si>
+  <si>
+    <t>EE KENIEKENIEBANDING</t>
+  </si>
+  <si>
+    <t>EE BRANSAN</t>
+  </si>
+  <si>
+    <t>EE BAMBADJI</t>
+  </si>
+  <si>
+    <t>EE GAMBA GAMBA</t>
+  </si>
+  <si>
+    <t>EE BOKHODY</t>
+  </si>
+  <si>
+    <t>EE DOUKHIBA</t>
+  </si>
+  <si>
+    <t>EE MISSIRAH SIRIMANA</t>
+  </si>
+  <si>
+    <t>Code ID</t>
+  </si>
+  <si>
+    <t>eu_list</t>
+  </si>
+  <si>
+    <t>site_code</t>
+  </si>
+  <si>
+    <t>select_one eu_list</t>
+  </si>
+  <si>
+    <t>select_one commune_list</t>
+  </si>
+  <si>
+    <t>select_one site_list</t>
+  </si>
+  <si>
+    <t>select_one site_code</t>
+  </si>
+  <si>
+    <t>eu_list = ${o_eu_name}</t>
+  </si>
+  <si>
+    <t>sn_lf_o_2405_v2</t>
+  </si>
+  <si>
+    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO V2</t>
+  </si>
+  <si>
+    <t>sn_lf_itas_20305_3_dbs_v2</t>
+  </si>
+  <si>
+    <t>read_only</t>
+  </si>
+  <si>
+    <t>concat(${o_BarcodeID})</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>o_photo_1</t>
+  </si>
+  <si>
+    <t>o_photo_2</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>o_temperature</t>
+  </si>
+  <si>
+    <t>9. Température de la pièce (°c)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>10. Date et heure d'émission du DBS</t>
+  </si>
+  <si>
+    <t>Lecture d'une heure après</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${o_result1} = 'Invalide' or ${o_result1} = 'Positif' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${o_result2} = 'Invalide'  or ${o_result2} = 'Positif' </t>
+  </si>
+  <si>
+    <t>o_date_emission</t>
+  </si>
+  <si>
+    <t>o_date_1ere_lecture</t>
+  </si>
+  <si>
+    <t>o_date_2eme_lecture</t>
+  </si>
+  <si>
+    <t>Lecture d'après 24 heures</t>
+  </si>
+  <si>
+    <t>11. Résultat de la 1ère lecture du DBS</t>
+  </si>
+  <si>
+    <t>13. Donner la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>14. Prener la photo de la 1ère lecture invalide ou positive</t>
+  </si>
+  <si>
+    <t>15. Date et heure de la 1ère lecture du DBS</t>
+  </si>
+  <si>
+    <t>16 .Le premier résultat du test de ce participant est ${o_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
+  </si>
+  <si>
+    <t>17. Résultat de la 2ème lecture du DBS</t>
+  </si>
+  <si>
+    <t>18. Donnez la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>19. Donnez la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>20. Prener la photo de la 2ème lecture invalide ou positive</t>
+  </si>
+  <si>
+    <t>21. Date et heure de la 2ème lecture du DBS</t>
+  </si>
+  <si>
+    <t>22. Notes supplémentaires</t>
   </si>
   <si>
     <t>if(${o_result1}="Invalide" and ${o_result2}="Positif", "Positif",
  if(${o_result1}="Invalide" and ${o_result2}="Invalide", "indéterminé", 
   if(${o_result1}="Invalide" and ${o_result2}="Négatif", "Négatif", 
-   if(${o_result1}="Positif", "Positif", 
-    if(${o_result1}="Négatif" , "Négatif","Négatif"
+   if(${o_result1}="Positif" and ${o_result2}="Positif", "Positif", 
+    if(${o_result1}="Positif" and ${o_result2}="Négatif", "Négatif", 
+     if(${o_result1}="Positif" and ${o_result2}="Invalide", "indéterminé", 
+      if(${o_result1}="Négatif" , "Négatif","Négatif"
+       )
+     )
     )
    )
   )
  )
 )</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
-    <t>if(${o_IDType} = 'Scanner', concat(${o_BarcodeID}),concat(${o_recorderID}, '_', ${o_cluster_id}, '_',  ${o_manual_code_id}))</t>
-  </si>
-  <si>
-    <t>Résultat ONCHO</t>
-  </si>
-  <si>
-    <t>10. Résultat Test ONCHO 1</t>
-  </si>
-  <si>
-    <t>15. Résultat Test ONCHO 2</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>N°</t>
-  </si>
-  <si>
-    <t>COMMUNES POLARISEES</t>
-  </si>
-  <si>
-    <t>ETABLISSEMENTS</t>
-  </si>
-  <si>
-    <t>SARAYA</t>
-  </si>
-  <si>
-    <t>EE MANDANKHOLING/DANTILA</t>
-  </si>
-  <si>
-    <t>BEMBOU</t>
-  </si>
-  <si>
-    <t>EE BALORI</t>
-  </si>
-  <si>
-    <t>EE BOBOTI</t>
-  </si>
-  <si>
-    <t>DIALADAKHOTO</t>
-  </si>
-  <si>
-    <t>EE FODE BINEA</t>
-  </si>
-  <si>
-    <t>EE KHARAKHENA</t>
-  </si>
-  <si>
-    <t>EE MAMBA DIAKHABY (Ex DIAKHABA)</t>
-  </si>
-  <si>
-    <t>EE MASSA MASSA</t>
-  </si>
-  <si>
-    <t>EE SAMEKHOTO</t>
-  </si>
-  <si>
-    <t>EE SATADOUGOU</t>
-  </si>
-  <si>
-    <t>EE MADINACOURA BOUGOUDALA</t>
-  </si>
-  <si>
-    <t>MADINA BAFFE</t>
-  </si>
-  <si>
-    <t>EE BABOUYA</t>
-  </si>
-  <si>
-    <t>EE KHOULEA</t>
-  </si>
-  <si>
-    <t>EE NOUMOUFOUKHA</t>
-  </si>
-  <si>
-    <t>EE SAMECOUTA DANTILA</t>
-  </si>
-  <si>
-    <t>KHOSSANTO</t>
-  </si>
-  <si>
-    <t>EE CIRE GUIMBA EX KHOSSANTO</t>
-  </si>
-  <si>
-    <t>EE DIEGOUN</t>
-  </si>
-  <si>
-    <t>EE LEFAKHO</t>
-  </si>
-  <si>
-    <t>EE NIAMAYA</t>
-  </si>
-  <si>
-    <t>MISSIRAH SIRIMANA</t>
-  </si>
-  <si>
-    <t>EE BAGUE</t>
-  </si>
-  <si>
-    <t>EE DALOTO</t>
-  </si>
-  <si>
-    <t>EE FARANDING</t>
-  </si>
-  <si>
-    <t>EE MADINA SIRIMANA</t>
-  </si>
-  <si>
-    <t>EE MOUSSALA KENIEKHO</t>
-  </si>
-  <si>
-    <t>EE SAMBRAMBOUGOU</t>
-  </si>
-  <si>
-    <t>WANSANGARAN</t>
-  </si>
-  <si>
-    <t>SABODALA</t>
-  </si>
-  <si>
-    <t>EE BAMBARAYANDING</t>
-  </si>
-  <si>
-    <t>EE DINDIFA</t>
-  </si>
-  <si>
-    <t>EE MAKHANA</t>
-  </si>
-  <si>
-    <t>EE SABODALA</t>
-  </si>
-  <si>
-    <t>EE OUSMANE KEITA EX GUEMEDJI</t>
-  </si>
-  <si>
-    <t>EE MAMAKHONO</t>
-  </si>
-  <si>
-    <t>EE MOUSSALA MAHINAMINE</t>
-  </si>
-  <si>
-    <t>EE KENIEKENIEBANDING</t>
-  </si>
-  <si>
-    <t>EE BRANSAN</t>
-  </si>
-  <si>
-    <t>EE BAMBADJI</t>
-  </si>
-  <si>
-    <t>EE GAMBA GAMBA</t>
-  </si>
-  <si>
-    <t>EE BOKHODY</t>
-  </si>
-  <si>
-    <t>EE DOUKHIBA</t>
-  </si>
-  <si>
-    <t>EE MISSIRAH SIRIMANA</t>
-  </si>
-  <si>
-    <t>Code ID</t>
-  </si>
-  <si>
-    <t>eu_list</t>
-  </si>
-  <si>
-    <t>site_code</t>
-  </si>
-  <si>
-    <t>select_one eu_list</t>
-  </si>
-  <si>
-    <t>select_one commune_list</t>
-  </si>
-  <si>
-    <t>select_one site_list</t>
-  </si>
-  <si>
-    <t>select_one site_code</t>
-  </si>
-  <si>
-    <t>eu_list = ${o_eu_name}</t>
-  </si>
-  <si>
-    <t>sn_lf_o_2405_v2</t>
-  </si>
-  <si>
-    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO V2</t>
-  </si>
-  <si>
-    <t>sn_lf_itas_20305_3_dbs_v2</t>
   </si>
 </sst>
 </file>
@@ -1113,6 +1168,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1158,16 +1223,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1468,13 +1523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1527,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>10</v>
@@ -1536,10 +1591,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="63">
@@ -1547,10 +1602,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>13</v>
@@ -1573,13 +1628,13 @@
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="13"/>
@@ -1596,13 +1651,13 @@
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="13"/>
@@ -1616,18 +1671,18 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
@@ -1641,18 +1696,18 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="31.5">
       <c r="A6" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>18</v>
@@ -1672,7 +1727,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:15" customFormat="1">
@@ -1680,10 +1735,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="14"/>
       <c r="J7" s="29" t="s">
@@ -1692,10 +1747,10 @@
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1">
       <c r="A8" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -1704,7 +1759,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="14"/>
       <c r="I8" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -1712,13 +1767,13 @@
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1">
       <c r="A9" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="33"/>
@@ -1730,15 +1785,15 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="O9" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1">
       <c r="A10" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -1747,7 +1802,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -1755,10 +1810,10 @@
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1767,7 +1822,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="30"/>
       <c r="I11" s="37" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -1778,10 +1833,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
@@ -1801,17 +1856,17 @@
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="16"/>
       <c r="H13" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13" t="s">
@@ -1826,17 +1881,17 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="14"/>
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
       <c r="H14" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13" t="s">
@@ -1851,21 +1906,21 @@
         <v>17</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="14"/>
       <c r="F15" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13" t="s">
@@ -1880,22 +1935,22 @@
         <v>17</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="26" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>16</v>
@@ -1909,17 +1964,15 @@
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1">
       <c r="A17" s="13" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>24</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="18"/>
@@ -1934,21 +1987,19 @@
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1">
       <c r="A18" s="13" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="14" t="s">
-        <v>114</v>
-      </c>
+      <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="13" t="s">
         <v>16</v>
@@ -1959,21 +2010,21 @@
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1">
       <c r="A19" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="13" t="s">
         <v>16</v>
@@ -1984,20 +2035,22 @@
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1">
       <c r="A20" s="13" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="16"/>
+        <v>107</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="D20" s="18"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="H20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="14"/>
       <c r="J20" s="13" t="s">
         <v>16</v>
       </c>
@@ -2005,260 +2058,385 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" s="11" customFormat="1" ht="63">
+    <row r="21" spans="1:13" s="11" customFormat="1">
       <c r="A21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="18"/>
       <c r="H21" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" s="11" customFormat="1" ht="31.5">
       <c r="A22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="19"/>
+        <v>189</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="12"/>
+        <v>198</v>
+      </c>
+      <c r="I22" s="14"/>
       <c r="J22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" s="11" customFormat="1">
       <c r="A23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="12"/>
+        <v>195</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13" s="11" customFormat="1">
       <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="12"/>
+      <c r="B24" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="J24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" s="11" customFormat="1" ht="63">
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="162.75" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="12"/>
+      <c r="H26" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="23" customFormat="1">
-      <c r="A27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="13"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="D28" s="19"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" s="11" customFormat="1" ht="31.5">
       <c r="A29" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13" s="11" customFormat="1">
+      <c r="A30" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" ht="123" customHeight="1">
+      <c r="A31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" s="3" customFormat="1">
-      <c r="A30" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="B31" s="12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="21" t="s">
+        <v>215</v>
+      </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+    <row r="32" spans="1:13" s="23" customFormat="1">
+      <c r="A32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1">
+      <c r="A35" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2272,7 +2450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67:A106"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2285,7 +2463,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2294,827 +2472,827 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="26" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B67">
         <v>341</v>
@@ -3123,12 +3301,12 @@
         <v>341</v>
       </c>
       <c r="F67" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B68">
         <v>342</v>
@@ -3137,12 +3315,12 @@
         <v>342</v>
       </c>
       <c r="F68" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B69">
         <v>343</v>
@@ -3151,12 +3329,12 @@
         <v>343</v>
       </c>
       <c r="F69" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B70">
         <v>344</v>
@@ -3165,12 +3343,12 @@
         <v>344</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B71">
         <v>345</v>
@@ -3179,12 +3357,12 @@
         <v>345</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B72">
         <v>346</v>
@@ -3193,12 +3371,12 @@
         <v>346</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B73">
         <v>347</v>
@@ -3207,12 +3385,12 @@
         <v>347</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B74">
         <v>348</v>
@@ -3221,12 +3399,12 @@
         <v>348</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B75">
         <v>349</v>
@@ -3235,12 +3413,12 @@
         <v>349</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B76">
         <v>350</v>
@@ -3249,12 +3427,12 @@
         <v>350</v>
       </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B77">
         <v>351</v>
@@ -3263,12 +3441,12 @@
         <v>351</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B78">
         <v>352</v>
@@ -3277,12 +3455,12 @@
         <v>352</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B79">
         <v>353</v>
@@ -3291,12 +3469,12 @@
         <v>353</v>
       </c>
       <c r="F79" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B80">
         <v>354</v>
@@ -3305,12 +3483,12 @@
         <v>354</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B81">
         <v>355</v>
@@ -3319,12 +3497,12 @@
         <v>355</v>
       </c>
       <c r="F81" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B82">
         <v>356</v>
@@ -3333,12 +3511,12 @@
         <v>356</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B83">
         <v>357</v>
@@ -3347,12 +3525,12 @@
         <v>357</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B84">
         <v>358</v>
@@ -3361,12 +3539,12 @@
         <v>358</v>
       </c>
       <c r="F84" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B85">
         <v>359</v>
@@ -3375,12 +3553,12 @@
         <v>359</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B86">
         <v>360</v>
@@ -3389,12 +3567,12 @@
         <v>360</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B87">
         <v>361</v>
@@ -3403,12 +3581,12 @@
         <v>361</v>
       </c>
       <c r="F87" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B88">
         <v>362</v>
@@ -3417,12 +3595,12 @@
         <v>362</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B89">
         <v>363</v>
@@ -3431,12 +3609,12 @@
         <v>363</v>
       </c>
       <c r="F89" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B90">
         <v>364</v>
@@ -3445,12 +3623,12 @@
         <v>364</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B91">
         <v>365</v>
@@ -3459,12 +3637,12 @@
         <v>365</v>
       </c>
       <c r="F91" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B92">
         <v>366</v>
@@ -3473,12 +3651,12 @@
         <v>366</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B93">
         <v>367</v>
@@ -3487,12 +3665,12 @@
         <v>367</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B94">
         <v>368</v>
@@ -3501,12 +3679,12 @@
         <v>368</v>
       </c>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B95">
         <v>369</v>
@@ -3515,12 +3693,12 @@
         <v>369</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B96">
         <v>370</v>
@@ -3529,12 +3707,12 @@
         <v>370</v>
       </c>
       <c r="F96" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B97">
         <v>371</v>
@@ -3543,12 +3721,12 @@
         <v>371</v>
       </c>
       <c r="F97" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B98">
         <v>372</v>
@@ -3557,12 +3735,12 @@
         <v>372</v>
       </c>
       <c r="F98" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B99">
         <v>373</v>
@@ -3571,12 +3749,12 @@
         <v>373</v>
       </c>
       <c r="F99" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B100">
         <v>374</v>
@@ -3585,12 +3763,12 @@
         <v>374</v>
       </c>
       <c r="F100" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B101">
         <v>375</v>
@@ -3599,12 +3777,12 @@
         <v>375</v>
       </c>
       <c r="F101" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B102">
         <v>376</v>
@@ -3613,12 +3791,12 @@
         <v>376</v>
       </c>
       <c r="F102" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B103">
         <v>377</v>
@@ -3627,12 +3805,12 @@
         <v>377</v>
       </c>
       <c r="F103" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B104">
         <v>378</v>
@@ -3641,12 +3819,12 @@
         <v>378</v>
       </c>
       <c r="F104" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B105">
         <v>379</v>
@@ -3655,12 +3833,12 @@
         <v>379</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B106">
         <v>380</v>
@@ -3669,7 +3847,7 @@
         <v>380</v>
       </c>
       <c r="F106" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3697,24 +3875,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3743,993 +3921,993 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.75">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B2" s="42">
         <v>2</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E2">
         <v>341</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B3" s="42">
         <v>5</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E3">
         <v>342</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O3" s="45" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B4" s="42">
         <v>9</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>343</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L4" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B5" s="42">
         <v>12</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>344</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O5" s="45" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B6" s="42">
         <v>15</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>345</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O6" s="50" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B7" s="42">
         <v>18</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E7">
         <v>346</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B8" s="46">
         <v>23</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>347</v>
       </c>
       <c r="N8" s="51" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O8" s="50" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B9" s="42">
         <v>25</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E9">
         <v>348</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B10" s="42">
         <v>28</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E10">
         <v>349</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O10" s="45" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B11" s="42">
         <v>32</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E11">
         <v>350</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B12" s="42">
         <v>35</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>351</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B13" s="42">
         <v>38</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>352</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B14" s="42">
         <v>41</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E14">
         <v>353</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.75">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B15" s="42">
         <v>45</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E15">
         <v>354</v>
       </c>
       <c r="N15" s="43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B16" s="42">
         <v>48</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <v>355</v>
       </c>
       <c r="N16" s="43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B17" s="46">
         <v>52</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E17">
         <v>356</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O17" s="44" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.75">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B18" s="42">
         <v>54</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E18">
         <v>357</v>
       </c>
       <c r="N18" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.75">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B19" s="42">
         <v>58</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E19">
         <v>358</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B20" s="42">
         <v>61</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E20">
         <v>359</v>
       </c>
       <c r="N20" s="43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B21" s="42">
         <v>64</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E21">
         <v>360</v>
       </c>
       <c r="N21" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.75">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B22" s="42">
         <v>67</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>361</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.75">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B23" s="42">
         <v>71</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E23">
         <v>362</v>
       </c>
       <c r="N23" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O23" s="44" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.75">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B24" s="42">
         <v>74</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E24">
         <v>363</v>
       </c>
       <c r="N24" s="51" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.75">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B25" s="42">
         <v>77</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E25">
         <v>364</v>
       </c>
       <c r="N25" s="43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O25" s="44" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.75">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B26" s="42">
         <v>81</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E26">
         <v>365</v>
       </c>
       <c r="N26" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O26" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.75">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B27" s="42">
         <v>84</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E27">
         <v>366</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.75">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B28" s="42">
         <v>87</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E28">
         <v>367</v>
       </c>
       <c r="N28" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.75">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B29" s="42">
         <v>90</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E29">
         <v>368</v>
       </c>
       <c r="N29" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O29" s="44" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.75">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B30" s="42">
         <v>92</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E30">
         <v>369</v>
       </c>
       <c r="N30" s="43" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O30" s="44" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.75">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B31" s="42">
         <v>79</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E31">
         <v>370</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O31" s="44" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.75">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B32" s="48">
         <v>46</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E32">
         <v>371</v>
       </c>
       <c r="N32" s="52" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O32" s="44" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.75">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B33" s="48">
         <v>91</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E33">
         <v>372</v>
       </c>
       <c r="N33" s="52" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.75">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B34" s="48">
         <v>26</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E34">
         <v>373</v>
       </c>
       <c r="N34" s="52" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O34" s="44" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.75">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B35" s="48">
         <v>55</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E35">
         <v>374</v>
       </c>
       <c r="N35" s="52" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O35" s="44" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18.75">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B36" s="48">
         <v>85</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E36">
         <v>375</v>
       </c>
       <c r="N36" s="49" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O36" s="44" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18.75">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B37" s="48">
         <v>6</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E37">
         <v>376</v>
       </c>
       <c r="N37" s="52" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O37" s="44" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18.75">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B38" s="48">
         <v>16</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E38">
         <v>377</v>
       </c>
       <c r="N38" s="52" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O38" s="44" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.75">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B39" s="48">
         <v>65</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E39">
         <v>378</v>
       </c>
       <c r="N39" s="49" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O39" s="44" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.75">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B40" s="48">
         <v>36</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E40">
         <v>379</v>
       </c>
       <c r="N40" s="52" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O40" s="44" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.75">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B41" s="48">
         <v>75</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E41">
         <v>380</v>
       </c>
       <c r="N41" s="52" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O41" s="44" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4740,21 +4918,21 @@
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D41">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B41">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D41">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O41">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C9FE87-628E-4BDF-BA87-DE87CD44EE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F01992-5587-40A8-BF89-32C63A3C3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -554,9 +554,6 @@
   </si>
   <si>
     <t>read_only</t>
-  </si>
-  <si>
-    <t>concat(${o_BarcodeID})</t>
   </si>
   <si>
     <t>image</t>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>sn_lf_itas_20305_3_dbs_v3</t>
+  </si>
+  <si>
+    <t>if(${o_IDType} = 'Scanner', concat(${o_BarcodeID}), concat(${o_manual_code_id}))</t>
   </si>
 </sst>
 </file>
@@ -1525,11 +1525,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1770,7 +1770,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>117</v>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="25" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>16</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1">
       <c r="A17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="12"/>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="18" spans="1:13" s="10" customFormat="1">
       <c r="A18" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="12"/>
@@ -2016,10 +2016,10 @@
         <v>98</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -2066,7 +2066,7 @@
         <v>101</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="12"/>
@@ -2085,20 +2085,20 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1" ht="31.5">
       <c r="A22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>179</v>
-      </c>
       <c r="C22" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="17"/>
       <c r="H22" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="12" t="s">
@@ -2110,16 +2110,16 @@
     </row>
     <row r="23" spans="1:13" s="10" customFormat="1">
       <c r="A23" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2164,7 +2164,7 @@
         <v>105</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="12"/>
@@ -2187,16 +2187,16 @@
         <v>106</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="18"/>
       <c r="H26" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="12" t="s">
@@ -2214,7 +2214,7 @@
         <v>107</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="11"/>
@@ -2239,7 +2239,7 @@
         <v>109</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="11"/>
@@ -2258,20 +2258,20 @@
     </row>
     <row r="29" spans="1:13" s="10" customFormat="1" ht="31.5">
       <c r="A29" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="17"/>
       <c r="H29" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="12" t="s">
@@ -2283,16 +2283,16 @@
     </row>
     <row r="30" spans="1:13" s="10" customFormat="1">
       <c r="A30" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -2320,7 +2320,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="12"/>
       <c r="I31" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -2371,7 +2371,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="11"/>
@@ -2450,7 +2450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B14"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2565,7 +2565,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>43</v>
@@ -2576,7 +2576,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>44</v>
@@ -2587,7 +2587,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>45</v>
@@ -2598,7 +2598,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>46</v>
@@ -2609,10 +2609,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2620,10 +2620,10 @@
         <v>56</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3865,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" t="s">
-        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>

--- a/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F01992-5587-40A8-BF89-32C63A3C3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8351473A-8799-4A14-A236-18111DBBCD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="220">
   <si>
     <t>type</t>
   </si>
@@ -253,9 +253,6 @@
     <t>8.c. Veuiller enregistrer le code d'identification unique du participant qui apparait sur une liste séparée et sur chaque test de diagnostic administré</t>
   </si>
   <si>
-    <t>12. Donner la raison du test Invalide</t>
-  </si>
-  <si>
     <t>requireo_message</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>10. Date et heure d'émission du DBS</t>
-  </si>
-  <si>
     <t>Lecture d'une heure après</t>
   </si>
   <si>
@@ -599,36 +593,6 @@
   </si>
   <si>
     <t>Lecture d'après 24 heures</t>
-  </si>
-  <si>
-    <t>11. Résultat de la 1ère lecture du DBS</t>
-  </si>
-  <si>
-    <t>13. Donner la raison du test Invalide</t>
-  </si>
-  <si>
-    <t>14. Prener la photo de la 1ère lecture invalide ou positive</t>
-  </si>
-  <si>
-    <t>15. Date et heure de la 1ère lecture du DBS</t>
-  </si>
-  <si>
-    <t>16 .Le premier résultat du test de ce participant est ${o_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
-  </si>
-  <si>
-    <t>17. Résultat de la 2ème lecture du DBS</t>
-  </si>
-  <si>
-    <t>18. Donnez la raison du test Invalide</t>
-  </si>
-  <si>
-    <t>19. Donnez la raison du test Invalide</t>
-  </si>
-  <si>
-    <t>20. Prener la photo de la 2ème lecture invalide ou positive</t>
-  </si>
-  <si>
-    <t>21. Date et heure de la 2ème lecture du DBS</t>
   </si>
   <si>
     <t>22. Notes supplémentaires</t>
@@ -674,16 +638,64 @@
     <t>Difficulté.d.absorption.d.échantillon</t>
   </si>
   <si>
-    <t>sn_lf_o_2405_v3</t>
-  </si>
-  <si>
-    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO V3</t>
-  </si>
-  <si>
-    <t>sn_lf_itas_20305_3_dbs_v3</t>
-  </si>
-  <si>
     <t>if(${o_IDType} = 'Scanner', concat(${o_BarcodeID}), concat(${o_manual_code_id}))</t>
+  </si>
+  <si>
+    <t>o_lotnumber1</t>
+  </si>
+  <si>
+    <t>o_lotnumber2</t>
+  </si>
+  <si>
+    <t>11. Date et heure d'élution</t>
+  </si>
+  <si>
+    <t>12. Veuiller entrer le numéro du lot OV16</t>
+  </si>
+  <si>
+    <t>13. Résultat de la 1ère lecture (Une heure)</t>
+  </si>
+  <si>
+    <t>14. Donner la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>15. Donner la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>16. Date et heure de la 1ère lecture (Une heure)</t>
+  </si>
+  <si>
+    <t>17. Prener la photo de la 1ère lecture invalide ou positive</t>
+  </si>
+  <si>
+    <t>18 .Le premier résultat du test de ce participant est ${o_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
+  </si>
+  <si>
+    <t>19. Veuiller entrer le numéro du lot OV16</t>
+  </si>
+  <si>
+    <t>20. Résultat de la 2ème lecture (24 heure)</t>
+  </si>
+  <si>
+    <t>21. Donnez la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>22. Donnez la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>23. Date et heure de la 2ème lecture (24 heure)</t>
+  </si>
+  <si>
+    <t>24. Prener la photo de la 2ème lecture invalide ou positive</t>
+  </si>
+  <si>
+    <t>sn_lf_itas_20305_3_dbs_v3_1</t>
+  </si>
+  <si>
+    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO V3.1</t>
+  </si>
+  <si>
+    <t>sn_lf_o_2405_v3_1</t>
   </si>
 </sst>
 </file>
@@ -1523,13 +1535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1582,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>10</v>
@@ -1591,10 +1603,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="63">
@@ -1602,7 +1614,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>65</v>
@@ -1628,10 +1640,10 @@
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1">
       <c r="A3" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>66</v>
@@ -1651,10 +1663,10 @@
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1">
       <c r="A4" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>67</v>
@@ -1671,15 +1683,15 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="10" customFormat="1">
       <c r="A5" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>68</v>
@@ -1696,15 +1708,15 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" ht="31.5">
       <c r="A6" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>69</v>
@@ -1727,7 +1739,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15" customFormat="1">
@@ -1735,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>70</v>
@@ -1759,7 +1771,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="13"/>
       <c r="I8" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -1770,10 +1782,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="32"/>
@@ -1785,7 +1797,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="O9" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1">
@@ -1822,7 +1834,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="29"/>
       <c r="I11" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -1833,7 +1845,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>71</v>
@@ -1856,7 +1868,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>72</v>
@@ -1866,7 +1878,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
       <c r="H13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="12" t="s">
@@ -1881,7 +1893,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>73</v>
@@ -1891,7 +1903,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="15"/>
       <c r="H14" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="12" t="s">
@@ -1906,7 +1918,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>74</v>
@@ -1914,13 +1926,13 @@
       <c r="D15" s="15"/>
       <c r="E15" s="13"/>
       <c r="F15" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="12" t="s">
@@ -1935,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>75</v>
@@ -1943,14 +1955,14 @@
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>63</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="25" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>16</v>
@@ -1964,13 +1976,13 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1">
       <c r="A17" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="12"/>
@@ -1987,13 +1999,13 @@
     </row>
     <row r="18" spans="1:13" s="10" customFormat="1">
       <c r="A18" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="12"/>
@@ -2010,19 +2022,17 @@
     </row>
     <row r="19" spans="1:13" s="10" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>185</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D19" s="17"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -2035,21 +2045,21 @@
     </row>
     <row r="20" spans="1:13" s="10" customFormat="1">
       <c r="A20" s="12" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>205</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="12" t="s">
         <v>16</v>
@@ -2060,20 +2070,20 @@
     </row>
     <row r="21" spans="1:13" s="10" customFormat="1">
       <c r="A21" s="12" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="17"/>
       <c r="H21" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="12" t="s">
@@ -2083,22 +2093,22 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="10" customFormat="1" ht="31.5">
+    <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="12" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="17"/>
       <c r="H22" s="13" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="12" t="s">
@@ -2110,16 +2120,16 @@
     </row>
     <row r="23" spans="1:13" s="10" customFormat="1">
       <c r="A23" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2133,22 +2143,24 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" s="10" customFormat="1">
+    <row r="24" spans="1:13" s="10" customFormat="1" ht="31.5">
       <c r="A24" s="12" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="15"/>
+        <v>177</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="H24" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" s="13"/>
       <c r="J24" s="12" t="s">
         <v>16</v>
       </c>
@@ -2156,97 +2168,95 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" s="10" customFormat="1" ht="63">
+    <row r="25" spans="1:13" s="10" customFormat="1">
       <c r="A25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="15"/>
       <c r="D25" s="17"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" s="10" customFormat="1" ht="63">
       <c r="A26" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13">
+        <v>184</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" s="10" customFormat="1">
       <c r="A27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="11"/>
+        <v>184</v>
+      </c>
+      <c r="I27" s="13"/>
       <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="18"/>
       <c r="H28" s="13" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12" t="s">
@@ -2256,158 +2266,175 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" s="10" customFormat="1" ht="31.5">
+    <row r="29" spans="1:13">
       <c r="A29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="I29" s="11"/>
       <c r="J29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" s="10" customFormat="1">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="11"/>
       <c r="J30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="123" customHeight="1">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" s="10" customFormat="1">
       <c r="A31" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" s="10" customFormat="1" ht="31.5">
+      <c r="A32" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" ht="123" customHeight="1">
+      <c r="A33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" s="22" customFormat="1">
-      <c r="A32" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1">
-      <c r="A35" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+    <row r="34" spans="1:13" s="22" customFormat="1">
+      <c r="A34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="D36" s="18"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -2419,24 +2446,59 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:13" s="3" customFormat="1">
+      <c r="A37" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2474,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>31</v>
@@ -2565,7 +2627,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>43</v>
@@ -2576,7 +2638,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>44</v>
@@ -2587,7 +2649,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>45</v>
@@ -2598,7 +2660,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>46</v>
@@ -2609,10 +2671,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2620,10 +2682,10 @@
         <v>56</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2639,13 +2701,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2653,13 +2715,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2667,13 +2729,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2681,13 +2743,13 @@
         <v>31</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2695,13 +2757,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2709,13 +2771,13 @@
         <v>31</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2723,13 +2785,13 @@
         <v>31</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2737,13 +2799,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2751,13 +2813,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2765,13 +2827,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2779,13 +2841,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2793,13 +2855,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2807,13 +2869,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2821,13 +2883,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2835,13 +2897,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2849,13 +2911,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2863,13 +2925,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2877,13 +2939,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2891,13 +2953,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2905,13 +2967,13 @@
         <v>32</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2919,13 +2981,13 @@
         <v>32</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2933,13 +2995,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2947,13 +3009,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2961,13 +3023,13 @@
         <v>32</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2975,13 +3037,13 @@
         <v>32</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2989,13 +3051,13 @@
         <v>32</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3003,13 +3065,13 @@
         <v>32</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3017,13 +3079,13 @@
         <v>32</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3031,13 +3093,13 @@
         <v>32</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3045,13 +3107,13 @@
         <v>32</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3059,13 +3121,13 @@
         <v>32</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3073,13 +3135,13 @@
         <v>32</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3087,13 +3149,13 @@
         <v>32</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3101,13 +3163,13 @@
         <v>32</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3115,13 +3177,13 @@
         <v>32</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3129,13 +3191,13 @@
         <v>32</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3143,13 +3205,13 @@
         <v>32</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3157,13 +3219,13 @@
         <v>32</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3171,13 +3233,13 @@
         <v>32</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3185,13 +3247,13 @@
         <v>32</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3199,13 +3261,13 @@
         <v>32</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3213,13 +3275,13 @@
         <v>32</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3227,13 +3289,13 @@
         <v>32</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3241,13 +3303,13 @@
         <v>32</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3255,13 +3317,13 @@
         <v>32</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3269,13 +3331,13 @@
         <v>32</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3283,18 +3345,18 @@
         <v>32</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B67" s="19">
         <v>341</v>
@@ -3303,12 +3365,12 @@
         <v>341</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" s="19">
         <v>342</v>
@@ -3317,12 +3379,12 @@
         <v>342</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B69" s="19">
         <v>343</v>
@@ -3331,12 +3393,12 @@
         <v>343</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B70" s="19">
         <v>344</v>
@@ -3345,12 +3407,12 @@
         <v>344</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="19">
         <v>345</v>
@@ -3359,12 +3421,12 @@
         <v>345</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="19">
         <v>346</v>
@@ -3373,12 +3435,12 @@
         <v>346</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B73" s="19">
         <v>347</v>
@@ -3387,12 +3449,12 @@
         <v>347</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" s="19">
         <v>348</v>
@@ -3401,12 +3463,12 @@
         <v>348</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" s="19">
         <v>349</v>
@@ -3415,12 +3477,12 @@
         <v>349</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" s="19">
         <v>350</v>
@@ -3429,12 +3491,12 @@
         <v>350</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B77" s="19">
         <v>351</v>
@@ -3443,12 +3505,12 @@
         <v>351</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B78" s="19">
         <v>352</v>
@@ -3457,12 +3519,12 @@
         <v>352</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" s="19">
         <v>353</v>
@@ -3471,12 +3533,12 @@
         <v>353</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" s="19">
         <v>354</v>
@@ -3485,12 +3547,12 @@
         <v>354</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" s="19">
         <v>355</v>
@@ -3499,12 +3561,12 @@
         <v>355</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" s="19">
         <v>356</v>
@@ -3513,12 +3575,12 @@
         <v>356</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B83" s="19">
         <v>357</v>
@@ -3527,12 +3589,12 @@
         <v>357</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B84" s="19">
         <v>358</v>
@@ -3541,12 +3603,12 @@
         <v>358</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="19">
         <v>359</v>
@@ -3555,12 +3617,12 @@
         <v>359</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B86" s="19">
         <v>360</v>
@@ -3569,12 +3631,12 @@
         <v>360</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" s="19">
         <v>361</v>
@@ -3583,12 +3645,12 @@
         <v>361</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B88" s="19">
         <v>362</v>
@@ -3597,12 +3659,12 @@
         <v>362</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B89" s="19">
         <v>363</v>
@@ -3611,12 +3673,12 @@
         <v>363</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B90" s="19">
         <v>364</v>
@@ -3625,12 +3687,12 @@
         <v>364</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B91" s="19">
         <v>365</v>
@@ -3639,12 +3701,12 @@
         <v>365</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B92" s="19">
         <v>366</v>
@@ -3653,12 +3715,12 @@
         <v>366</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B93" s="19">
         <v>367</v>
@@ -3667,12 +3729,12 @@
         <v>367</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B94" s="19">
         <v>368</v>
@@ -3681,12 +3743,12 @@
         <v>368</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B95" s="19">
         <v>369</v>
@@ -3695,12 +3757,12 @@
         <v>369</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B96" s="19">
         <v>370</v>
@@ -3709,12 +3771,12 @@
         <v>370</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B97" s="19">
         <v>371</v>
@@ -3723,12 +3785,12 @@
         <v>371</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B98" s="19">
         <v>372</v>
@@ -3737,12 +3799,12 @@
         <v>372</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99" s="19">
         <v>373</v>
@@ -3751,12 +3813,12 @@
         <v>373</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100" s="19">
         <v>374</v>
@@ -3765,12 +3827,12 @@
         <v>374</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B101" s="19">
         <v>375</v>
@@ -3779,12 +3841,12 @@
         <v>375</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B102" s="19">
         <v>376</v>
@@ -3793,12 +3855,12 @@
         <v>376</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="19">
         <v>377</v>
@@ -3807,12 +3869,12 @@
         <v>377</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B104" s="19">
         <v>378</v>
@@ -3821,12 +3883,12 @@
         <v>378</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B105" s="19">
         <v>379</v>
@@ -3835,12 +3897,12 @@
         <v>379</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B106" s="19">
         <v>380</v>
@@ -3849,7 +3911,7 @@
         <v>380</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3865,14 +3927,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3888,12 +3951,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3923,993 +3986,993 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>121</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L1" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>120</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.75">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="41">
         <v>2</v>
       </c>
       <c r="C2" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>123</v>
       </c>
       <c r="E2">
         <v>341</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="41">
         <v>5</v>
       </c>
       <c r="C3" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="E3">
         <v>342</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N3" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="41">
         <v>9</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>343</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="41">
         <v>12</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>344</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="41">
         <v>15</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>345</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="41">
         <v>18</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>346</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="45">
         <v>23</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>347</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="41">
         <v>25</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>348</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="41">
         <v>28</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>349</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="41">
         <v>32</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11">
         <v>350</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="41">
         <v>35</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12">
         <v>351</v>
       </c>
       <c r="N12" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="41">
         <v>38</v>
       </c>
       <c r="C13" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>136</v>
       </c>
       <c r="E13">
         <v>352</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="41">
         <v>41</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14">
         <v>353</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.75">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="41">
         <v>45</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>354</v>
       </c>
       <c r="N15" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="41">
         <v>48</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16">
         <v>355</v>
       </c>
       <c r="N16" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="43" t="s">
         <v>140</v>
-      </c>
-      <c r="O16" s="43" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="45">
         <v>52</v>
       </c>
       <c r="C17" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>140</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>141</v>
       </c>
       <c r="E17">
         <v>356</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O17" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.75">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="41">
         <v>54</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18">
         <v>357</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O18" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.75">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="41">
         <v>58</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19">
         <v>358</v>
       </c>
       <c r="N19" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="41">
         <v>61</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>359</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="41">
         <v>64</v>
       </c>
       <c r="C21" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>145</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>146</v>
       </c>
       <c r="E21">
         <v>360</v>
       </c>
       <c r="N21" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" s="43" t="s">
         <v>135</v>
-      </c>
-      <c r="O21" s="43" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.75">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="41">
         <v>67</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22">
         <v>361</v>
       </c>
       <c r="N22" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.75">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="41">
         <v>71</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23">
         <v>362</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O23" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.75">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="41">
         <v>74</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24">
         <v>363</v>
       </c>
       <c r="N24" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O24" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.75">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="41">
         <v>77</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25">
         <v>364</v>
       </c>
       <c r="N25" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O25" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.75">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="41">
         <v>81</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26">
         <v>365</v>
       </c>
       <c r="N26" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="43" t="s">
         <v>145</v>
-      </c>
-      <c r="O26" s="43" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.75">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="41">
         <v>84</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27">
         <v>366</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O27" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.75">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="41">
         <v>87</v>
       </c>
       <c r="C28" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>153</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>154</v>
       </c>
       <c r="E28">
         <v>367</v>
       </c>
       <c r="N28" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O28" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.75">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="41">
         <v>90</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29">
         <v>368</v>
       </c>
       <c r="N29" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O29" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.75">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="41">
         <v>92</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30">
         <v>369</v>
       </c>
       <c r="N30" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O30" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.75">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="41">
         <v>79</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31">
         <v>370</v>
       </c>
       <c r="N31" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O31" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.75">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" s="47">
         <v>46</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32">
         <v>371</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O32" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.75">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="47">
         <v>91</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33">
         <v>372</v>
       </c>
       <c r="N33" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O33" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.75">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" s="47">
         <v>26</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E34">
         <v>373</v>
       </c>
       <c r="N34" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O34" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.75">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="47">
         <v>55</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35">
         <v>374</v>
       </c>
       <c r="N35" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O35" s="43" t="s">
         <v>153</v>
-      </c>
-      <c r="O35" s="43" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18.75">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="47">
         <v>85</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36">
         <v>375</v>
       </c>
       <c r="N36" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O36" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18.75">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="47">
         <v>6</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37">
         <v>376</v>
       </c>
       <c r="N37" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O37" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18.75">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="47">
         <v>16</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38">
         <v>377</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O38" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.75">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="47">
         <v>65</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E39">
         <v>378</v>
       </c>
       <c r="N39" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O39" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.75">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="47">
         <v>36</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E40">
         <v>379</v>
       </c>
       <c r="N40" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O40" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.75">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="47">
         <v>75</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41">
         <v>380</v>
       </c>
       <c r="N41" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="43" t="s">
         <v>122</v>
-      </c>
-      <c r="O41" s="43" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_3_dbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8351473A-8799-4A14-A236-18111DBBCD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E629555B-D3F7-4F49-BDE5-CBABF6DABF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="222">
   <si>
     <t>type</t>
   </si>
@@ -689,13 +689,19 @@
     <t>24. Prener la photo de la 2ème lecture invalide ou positive</t>
   </si>
   <si>
-    <t>sn_lf_itas_20305_3_dbs_v3_1</t>
-  </si>
-  <si>
-    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO V3.1</t>
-  </si>
-  <si>
-    <t>sn_lf_o_2405_v3_1</t>
+    <t>Le format du QR Code est incorrect. Exemple SENITAS1234</t>
+  </si>
+  <si>
+    <t>if(${o_eu_name} = 'SARAYA', regex(., '^(SENITAS)\d{4}$'), true())</t>
+  </si>
+  <si>
+    <t>sn_lf_o_2405_v4</t>
+  </si>
+  <si>
+    <t>(2024 Mai) 3. ITAS - Formulaire Résultat ONCHO V4</t>
+  </si>
+  <si>
+    <t>sn_lf_itas_20305_3_dbs_v4</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1547,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1888,7 +1894,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1">
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="51">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
@@ -1900,8 +1906,12 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>217</v>
+      </c>
       <c r="H14" s="13" t="s">
         <v>92</v>
       </c>
@@ -3928,7 +3938,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3951,10 +3961,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>52</v>
